--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-id-linked-item.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
